--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_debug_battle.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_debug_battle.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K234"/>
+  <dimension ref="A1:K222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -843,7 +843,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>main</t>
+          <t>battle_upper_existence</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -853,17 +853,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>c_back</t>
+          <t>c_ue</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>戻る</t>
+          <t>見えざる観客の供物</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>戻る</t>
+          <t>見えざる観客の供物</t>
         </is>
       </c>
     </row>
@@ -875,411 +875,391 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>c_back</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>戻る</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>戻る</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>cancel</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>battle_stage1</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
+    <row r="26">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>go</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>森の狼との戦いへ……</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>森の狼との戦いへ……</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("stage_1", tg);</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="D27" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("stage_1", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>battle_stage2</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
+    <row r="30">
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>go</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>ケンタウロスとの戦いへ……</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>ケンタウロスとの戦いへ……</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("stage_2", tg);</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="D31" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("stage_2", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="D32" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>battle_stage3</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
+    <row r="34">
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t>go</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>ミノタウロスとの戦いへ……</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>ミノタウロスとの戦いへ……</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("stage_3", tg);</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="D35" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("stage_3", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="D36" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>battle_stage4</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
+    <row r="38">
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
         <is>
           <t>go</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>ドラゴンとの戦いへ……</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>ドラゴンとの戦いへ……</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("stage_4", tg);</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="D39" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("stage_4", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="D40" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>battle_upper_existence</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>go</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>見えざる観客の供物への試練へ……観客の妨害に注意せよ。</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>見えざる観客の供物への試練へ……観客の妨害に注意せよ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("upper_existence_battle", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>menu_rank_trial</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
+    <row r="46">
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
         <is>
           <t>trial_menu</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>ランクアップ試練を選択せよ。</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>ランクアップ試練を選択せよ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>trial_g</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>c_tg</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>G: 屑肉の洗礼</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>G: 屑肉の洗礼</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>trial_f</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>c_tf</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>F: 氷獄の猟犬</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>F: 氷獄の猟犬</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>trial_e</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>c_te</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>E: カインの亡霊</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>E: カインの亡霊</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>trial_d</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>c_td</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>D: 銅貨稼ぎの洗礼</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>D: 銅貨稼ぎの洗礼</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>c_back</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>戻る</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>戻る</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>main</t>
+          <t>trial_g</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>cancel</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>c_tg</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>G: 屑肉の洗礼</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>G: 屑肉の洗礼</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>menu_rank_trial</t>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>trial_f</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>c_tf</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>F: 氷獄の猟犬</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>F: 氷獄の猟犬</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>trial_e</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>trial_menu</t>
+          <t>c_te</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>ランクアップ試練を選択せよ。</t>
+          <t>E: カインの亡霊</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>ランクアップ試練を選択せよ。</t>
+          <t>E: カインの亡霊</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>trial_g</t>
+          <t>trial_d</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1289,24 +1269,24 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>c_tg</t>
+          <t>c_td</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>G: 屑肉の洗礼</t>
+          <t>D: 銅貨稼ぎの洗礼</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>G: 屑肉の洗礼</t>
+          <t>D: 銅貨稼ぎの洗礼</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>trial_f</t>
+          <t>menu_rank_trial_2</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1316,24 +1296,24 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>c_tf</t>
+          <t>c_next</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>F: 氷獄の猟犬</t>
+          <t>次へ</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>F: 氷獄の猟犬</t>
+          <t>次へ</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>trial_e</t>
+          <t>main</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1343,146 +1323,146 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>c_te</t>
+          <t>c_back</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>E: カインの亡霊</t>
+          <t>戻る</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>E: カインの亡霊</t>
+          <t>戻る</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>trial_d</t>
+          <t>main</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>c_td</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>D: 銅貨稼ぎの洗礼</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>D: 銅貨稼ぎの洗礼</t>
+          <t>cancel</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="inlineStr">
+      <c r="A54" t="inlineStr">
         <is>
           <t>menu_rank_trial_2</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>c_next</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>次へ</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>次へ</t>
-        </is>
-      </c>
     </row>
     <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>c_back</t>
+          <t>trial_menu2</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>戻る</t>
+          <t>上位ランク試練を選択せよ。</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>戻る</t>
+          <t>上位ランク試練を選択せよ。</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>main</t>
+          <t>trial_c</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>cancel</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>c_tc</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>C: 闘技場の鴉</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>C: 闘技場の鴉</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>menu_rank_trial_2</t>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>trial_b</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>c_tb</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>B: 虚無の処刑人</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>B: 虚無の処刑人</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>trial_a</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>trial_menu2</t>
+          <t>c_ta</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>上位ランク試練を選択せよ。</t>
+          <t>A: 影の自己</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>上位ランク試練を選択せよ。</t>
+          <t>A: 影の自己</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>trial_c</t>
+          <t>trial_s</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1492,24 +1472,24 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>c_tc</t>
+          <t>c_ts</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>C: 闘技場の鴉</t>
+          <t>S: 全盛期バルガス</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>C: 闘技場の鴉</t>
+          <t>S: 全盛期バルガス</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>trial_b</t>
+          <t>trial_final</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1519,24 +1499,24 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>c_tb</t>
+          <t>c_tfinal</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>B: 虚無の処刑人</t>
+          <t>FINAL: アスタロス</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>B: 虚無の処刑人</t>
+          <t>FINAL: アスタロス</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>trial_a</t>
+          <t>menu_rank_trial</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1546,892 +1526,892 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>c_ta</t>
+          <t>c_back</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>A: 影の自己</t>
+          <t>戻る</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>A: 影の自己</t>
+          <t>戻る</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>trial_s</t>
+          <t>menu_rank_trial</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>c_ts</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>S: 全盛期バルガス</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>S: 全盛期バルガス</t>
+          <t>cancel</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>trial_final</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>c_tfinal</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>FINAL: アスタロス</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>FINAL: アスタロス</t>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>trial_g</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>menu_rank_trial</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>c_back</t>
+          <t>go</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>戻る</t>
+          <t>屑肉の洗礼へ……</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>戻る</t>
+          <t>屑肉の洗礼へ……</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>menu_rank_trial</t>
-        </is>
-      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>cancel</t>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>sukutsu_rank_up_trial,1</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>trial_g</t>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_g_trial", tg);</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>trial_f</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
         <is>
           <t>go</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>屑肉の洗礼へ……</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>屑肉の洗礼へ……</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>sukutsu_rank_up_trial,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_g_trial", tg);</t>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>氷獄の猟犬との戦いへ……</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>氷獄の猟犬との戦いへ……</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="D70" t="inlineStr">
         <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>sukutsu_rank_up_trial,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_f_trial", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="D72" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>trial_f</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>trial_e</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
         <is>
           <t>go</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>氷獄の猟犬との戦いへ……</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>氷獄の猟犬との戦いへ……</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>sukutsu_rank_up_trial,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_f_trial", tg);</t>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>カインの亡霊との戦いへ……</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>カインの亡霊との戦いへ……</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="D75" t="inlineStr">
         <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>sukutsu_rank_up_trial,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_e_trial", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="D77" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>trial_e</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>trial_d</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
         <is>
           <t>go</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>カインの亡霊との戦いへ……</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>カインの亡霊との戦いへ……</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>sukutsu_rank_up_trial,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_e_trial", tg);</t>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>銅貨稼ぎの洗礼へ……</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>銅貨稼ぎの洗礼へ……</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="D80" t="inlineStr">
         <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>sukutsu_rank_up_trial,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_d_trial", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="D82" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>trial_d</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>trial_c</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
         <is>
           <t>go</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>銅貨稼ぎの洗礼へ……</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>銅貨稼ぎの洗礼へ……</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>sukutsu_rank_up_trial,4</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_d_trial", tg);</t>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>闘技場の鴉との戦いへ……</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>闘技場の鴉との戦いへ……</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="D85" t="inlineStr">
         <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>sukutsu_rank_up_trial,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_c_trial", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="D87" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>trial_c</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>trial_b</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
         <is>
           <t>go</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>闘技場の鴉との戦いへ……</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>闘技場の鴉との戦いへ……</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>sukutsu_rank_up_trial,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_c_trial", tg);</t>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>虚無の処刑人との戦いへ……</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>虚無の処刑人との戦いへ……</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="D90" t="inlineStr">
         <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>sukutsu_rank_up_trial,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_b_trial", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="D92" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>trial_b</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>trial_a</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
         <is>
           <t>go</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>虚無の処刑人との戦いへ……</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>虚無の処刑人との戦いへ……</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>sukutsu_rank_up_trial,6</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_b_trial", tg);</t>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>影の自己との戦いへ……</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>影の自己との戦いへ……</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="D95" t="inlineStr">
         <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>sukutsu_rank_up_trial,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_a_trial", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="D97" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>trial_a</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>trial_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
         <is>
           <t>go</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>影の自己との戦いへ……</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>影の自己との戦いへ……</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>sukutsu_rank_up_trial,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_a_trial", tg);</t>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>全盛期バルガスとの戦いへ……</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>全盛期バルガスとの戦いへ……</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="D100" t="inlineStr">
         <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>sukutsu_rank_up_trial,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_s_trial", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="D102" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>trial_s</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>trial_final</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
         <is>
           <t>go</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>全盛期バルガスとの戦いへ……</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>全盛期バルガスとの戦いへ……</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>sukutsu_rank_up_trial,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_s_trial", tg);</t>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>アスタロスとの最終決戦へ……</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>アスタロスとの最終決戦へ……</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="D105" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("final_astaroth", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="D106" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>trial_final</t>
-        </is>
-      </c>
-    </row>
     <row r="107">
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>go</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>アスタロスとの最終決戦へ……</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>アスタロスとの最終決戦へ……</t>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>menu_story_battle</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("final_astaroth", tg);</t>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>story_menu</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>ストーリーバトルを選択せよ。</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>ストーリーバトルを選択せよ。</t>
         </is>
       </c>
     </row>
     <row r="109">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>story_balgas</t>
+        </is>
+      </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>c_sb</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>VS バルガス（全盛期）</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>VS バルガス（全盛期）</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>menu_story_battle</t>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>story_astaroth</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>c_sa</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>VS アスタロス</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>VS アスタロス</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>story_menu</t>
+          <t>c_back</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>ストーリーバトルを選択せよ。</t>
+          <t>戻る</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>ストーリーバトルを選択せよ。</t>
+          <t>戻る</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
           <t>story_balgas</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>c_sb</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>VS バルガス（全盛期）</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>VS バルガス（全盛期）</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="B113" t="inlineStr">
+    </row>
+    <row r="114">
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>go</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>バルガスとの決戦へ……</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>バルガスとの決戦へ……</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_s_trial", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
         <is>
           <t>story_astaroth</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>c_sa</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>VS アスタロス</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>VS アスタロス</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>c_back</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>戻る</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>戻る</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>cancel</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>story_balgas</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
+    </row>
+    <row r="118">
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
         <is>
           <t>go</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>バルガスとの決戦へ……</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>バルガスとの決戦へ……</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_s_trial", tg);</t>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>アスタロスとの最終決戦へ……</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>アスタロスとの最終決戦へ……</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="D119" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("final_astaroth", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="D120" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>story_astaroth</t>
-        </is>
-      </c>
-    </row>
     <row r="121">
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>go</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>アスタロスとの最終決戦へ……</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>アスタロスとの最終決戦へ……</t>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>menu_debug</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("final_astaroth", tg);</t>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>debug_menu</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>デバッグ用バトルを選択せよ。</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>デバッグ用バトルを選択せよ。</t>
         </is>
       </c>
     </row>
     <row r="123">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>battle_debug_weak</t>
+        </is>
+      </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>c_dw</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>[DEBUG] 弱い敵 (Lv1)</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>[DEBUG] 弱い敵 (Lv1)</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>menu_debug</t>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>battle_debug_strong</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>c_ds</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>[DEBUG] 強い敵 (Lv100)</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>[DEBUG] 強い敵 (Lv100)</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>battle_debug_horde</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>debug_menu</t>
+          <t>c_dh</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>デバッグ用バトルを選択せよ。</t>
+          <t>[DEBUG] 敵の群れ (10体)</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>デバッグ用バトルを選択せよ。</t>
+          <t>[DEBUG] 敵の群れ (10体)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>battle_debug_weak</t>
+          <t>battle_debug_gimmick</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -2441,24 +2421,24 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>c_dw</t>
+          <t>c_dg</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>[DEBUG] 弱い敵 (Lv1)</t>
+          <t>[DEBUG] ギミックテスト</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>[DEBUG] 弱い敵 (Lv1)</t>
+          <t>[DEBUG] ギミックテスト</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>battle_debug_strong</t>
+          <t>main</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -2468,338 +2448,338 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>c_ds</t>
+          <t>c_back</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>[DEBUG] 強い敵 (Lv100)</t>
+          <t>戻る</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>[DEBUG] 強い敵 (Lv100)</t>
+          <t>戻る</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>battle_debug_horde</t>
+          <t>main</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>c_dh</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>[DEBUG] 敵の群れ (10体)</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>[DEBUG] 敵の群れ (10体)</t>
+          <t>cancel</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>battle_debug_gimmick</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>c_dg</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>[DEBUG] ギミックテスト</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>[DEBUG] ギミックテスト</t>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>battle_debug_weak</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>c_back</t>
+          <t>go</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>戻る</t>
+          <t>弱い敵との戦いへ……</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>戻る</t>
+          <t>弱い敵との戦いへ……</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>cancel</t>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("debug_weak", tg);</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>battle_debug_weak</t>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>battle_debug_strong</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
         <is>
           <t>go</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>弱い敵との戦いへ……</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>弱い敵との戦いへ……</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("debug_weak", tg);</t>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>強い敵との戦いへ……</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>強い敵との戦いへ……</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="D135" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("debug_strong", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="D136" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>battle_debug_strong</t>
-        </is>
-      </c>
-    </row>
     <row r="137">
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>battle_debug_horde</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
         <is>
           <t>go</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>強い敵との戦いへ……</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>強い敵との戦いへ……</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("debug_strong", tg);</t>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>敵の群れとの戦いへ……</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>敵の群れとの戦いへ……</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="D139" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("debug_horde", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="D140" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>battle_debug_horde</t>
-        </is>
-      </c>
-    </row>
     <row r="141">
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>battle_debug_gimmick</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
         <is>
           <t>go</t>
         </is>
       </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>敵の群れとの戦いへ……</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>敵の群れとの戦いへ……</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("debug_horde", tg);</t>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>ギミックテストへ……観客の妨害に注意せよ。</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>ギミックテストへ……観客の妨害に注意せよ。</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="D143" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("debug_gimmick", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="D144" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>battle_debug_gimmick</t>
-        </is>
-      </c>
-    </row>
     <row r="145">
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>go</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>ギミックテストへ……観客の妨害に注意せよ。</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>ギミックテストへ……観客の妨害に注意せよ。</t>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>menu_flags</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("debug_gimmick", tg);</t>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>flag_menu</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>フラグ操作を選択せよ。</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>フラグ操作を選択せよ。</t>
         </is>
       </c>
     </row>
     <row r="147">
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>set_rank_menu</t>
+        </is>
+      </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>c_rank</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>ランクを設定</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>ランクを設定</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>menu_flags</t>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>flag_reset_all</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>c_reset</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>フラグをリセット</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>フラグをリセット</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>flag_complete_all</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>flag_menu</t>
+          <t>c_complete</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>フラグ操作を選択せよ。</t>
+          <t>全クエスト完了</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>フラグ操作を選択せよ。</t>
+          <t>全クエスト完了</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>set_rank_menu</t>
+          <t>main</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -2809,146 +2789,146 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>c_rank</t>
+          <t>c_back</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>ランクを設定</t>
+          <t>戻る</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>ランクを設定</t>
+          <t>戻る</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>flag_reset_all</t>
+          <t>main</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>c_reset</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>フラグをリセット</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>フラグをリセット</t>
+          <t>cancel</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>flag_complete_all</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>c_complete</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>全クエスト完了</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>全クエスト完了</t>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>set_rank_menu</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>c_back</t>
+          <t>rank_menu</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>戻る</t>
+          <t>設定するランクを選択せよ。</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>戻る</t>
+          <t>設定するランクを選択せよ。</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>main</t>
+          <t>set_rank_0</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>cancel</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>c_r0</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Unranked (0)</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Unranked (0)</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>set_rank_menu</t>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>set_rank_1</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>c_r1</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>G (1)</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>G (1)</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>set_rank_2</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>rank_menu</t>
+          <t>c_r2</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>設定するランクを選択せよ。</t>
+          <t>F (2)</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>設定するランクを選択せよ。</t>
+          <t>F (2)</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>set_rank_0</t>
+          <t>set_rank_3</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -2958,24 +2938,24 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>c_r0</t>
+          <t>c_r3</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Unranked (0)</t>
+          <t>E (3)</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Unranked (0)</t>
+          <t>E (3)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>set_rank_1</t>
+          <t>set_rank_menu_2</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -2985,24 +2965,24 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>c_r1</t>
+          <t>c_next</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>G (1)</t>
+          <t>次へ</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>G (1)</t>
+          <t>次へ</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>set_rank_2</t>
+          <t>menu_flags</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3012,146 +2992,146 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>c_r2</t>
+          <t>c_back</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>F (2)</t>
+          <t>戻る</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>F (2)</t>
+          <t>戻る</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>set_rank_3</t>
+          <t>menu_flags</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>c_r3</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>E (3)</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>E (3)</t>
+          <t>cancel</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>set_rank_4</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>c_r4</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>D (4)</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>D (4)</t>
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>set_rank_menu_2</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>menu_flags</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>c_back</t>
+          <t>rank_menu2</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>戻る</t>
+          <t>上位ランクを選択せよ。</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>戻る</t>
+          <t>上位ランクを選択せよ。</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>menu_flags</t>
+          <t>set_rank_4</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>cancel</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>c_r4</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>D (4)</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>D (4)</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>set_rank_menu</t>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>set_rank_5</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>c_r5</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>C (5)</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>C (5)</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>set_rank_6</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>rank_menu</t>
+          <t>c_r6</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>設定するランクを選択せよ。</t>
+          <t>B (6)</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>設定するランクを選択せよ。</t>
+          <t>B (6)</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>set_rank_0</t>
+          <t>set_rank_7</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -3161,24 +3141,24 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>c_r0</t>
+          <t>c_r7</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Unranked (0)</t>
+          <t>A (7)</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Unranked (0)</t>
+          <t>A (7)</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>set_rank_1</t>
+          <t>set_rank_8</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -3188,24 +3168,24 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>c_r1</t>
+          <t>c_r8</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>G (1)</t>
+          <t>S (8)</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>G (1)</t>
+          <t>S (8)</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>set_rank_2</t>
+          <t>set_rank_menu</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -3215,320 +3195,180 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>c_r2</t>
+          <t>c_back</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>F (2)</t>
+          <t>戻る</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>F (2)</t>
+          <t>戻る</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>set_rank_3</t>
+          <t>set_rank_menu</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>c_r3</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>E (3)</t>
-        </is>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>E (3)</t>
+          <t>cancel</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>set_rank_menu_2</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>c_next</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>次へ</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>次へ</t>
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>set_rank_0</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="inlineStr">
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.rank,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>rank_set</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>ランクを Unranked に設定した。</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>ランクを Unranked に設定した。</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="inlineStr">
         <is>
           <t>menu_flags</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>c_back</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>戻る</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>戻る</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>menu_flags</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>cancel</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>set_rank_menu_2</t>
-        </is>
-      </c>
     </row>
     <row r="174">
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>rank_menu2</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>上位ランクを選択せよ。</t>
-        </is>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>上位ランクを選択せよ。</t>
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>set_rank_1</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>set_rank_4</t>
-        </is>
-      </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>c_r4</t>
-        </is>
-      </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>D (4)</t>
-        </is>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>D (4)</t>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.rank,1</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>set_rank_5</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>c_r5</t>
+          <t>rank_set</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>C (5)</t>
+          <t>ランクを G に設定した。</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>C (5)</t>
+          <t>ランクを G に設定した。</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>set_rank_6</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>c_r6</t>
-        </is>
-      </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>B (6)</t>
-        </is>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>B (6)</t>
+          <t>menu_flags</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>set_rank_7</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>c_r7</t>
-        </is>
-      </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>A (7)</t>
-        </is>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>A (7)</t>
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>set_rank_2</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>set_rank_8</t>
-        </is>
-      </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>c_r8</t>
-        </is>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>S (8)</t>
-        </is>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>S (8)</t>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.rank,2</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>set_rank_menu</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>c_back</t>
+          <t>rank_set</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>戻る</t>
+          <t>ランクを F に設定した。</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>戻る</t>
+          <t>ランクを F に設定した。</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>set_rank_menu</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>cancel</t>
+          <t>menu_flags</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>set_rank_0</t>
+          <t>set_rank_3</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3380,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.rank,0</t>
+          <t>chitsii.arena.player.rank,3</t>
         </is>
       </c>
     </row>
@@ -3557,12 +3397,12 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>ランクを Unranked に設定した。</t>
+          <t>ランクを E に設定した。</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>ランクを Unranked に設定した。</t>
+          <t>ランクを E に設定した。</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3416,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>set_rank_1</t>
+          <t>set_rank_4</t>
         </is>
       </c>
     </row>
@@ -3588,7 +3428,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.rank,1</t>
+          <t>chitsii.arena.player.rank,4</t>
         </is>
       </c>
     </row>
@@ -3605,12 +3445,12 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>ランクを G に設定した。</t>
+          <t>ランクを D に設定した。</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>ランクを G に設定した。</t>
+          <t>ランクを D に設定した。</t>
         </is>
       </c>
     </row>
@@ -3624,7 +3464,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>set_rank_2</t>
+          <t>set_rank_5</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3476,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.rank,2</t>
+          <t>chitsii.arena.player.rank,5</t>
         </is>
       </c>
     </row>
@@ -3653,12 +3493,12 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>ランクを F に設定した。</t>
+          <t>ランクを C に設定した。</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>ランクを F に設定した。</t>
+          <t>ランクを C に設定した。</t>
         </is>
       </c>
     </row>
@@ -3672,7 +3512,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>set_rank_3</t>
+          <t>set_rank_6</t>
         </is>
       </c>
     </row>
@@ -3684,7 +3524,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.rank,3</t>
+          <t>chitsii.arena.player.rank,6</t>
         </is>
       </c>
     </row>
@@ -3701,12 +3541,12 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>ランクを E に設定した。</t>
+          <t>ランクを B に設定した。</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>ランクを E に設定した。</t>
+          <t>ランクを B に設定した。</t>
         </is>
       </c>
     </row>
@@ -3720,7 +3560,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>set_rank_4</t>
+          <t>set_rank_7</t>
         </is>
       </c>
     </row>
@@ -3732,7 +3572,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.rank,4</t>
+          <t>chitsii.arena.player.rank,7</t>
         </is>
       </c>
     </row>
@@ -3749,12 +3589,12 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>ランクを D に設定した。</t>
+          <t>ランクを A に設定した。</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>ランクを D に設定した。</t>
+          <t>ランクを A に設定した。</t>
         </is>
       </c>
     </row>
@@ -3768,7 +3608,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>set_rank_5</t>
+          <t>set_rank_8</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3620,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.rank,5</t>
+          <t>chitsii.arena.player.rank,8</t>
         </is>
       </c>
     </row>
@@ -3797,12 +3637,12 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>ランクを C に設定した。</t>
+          <t>ランクを S に設定した。</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>ランクを C に設定した。</t>
+          <t>ランクを S に設定した。</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3656,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>set_rank_6</t>
+          <t>flag_reset_all</t>
         </is>
       </c>
     </row>
@@ -3828,91 +3668,91 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.rank,6</t>
+          <t>chitsii.arena.player.rank,0</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>rank_set</t>
-        </is>
-      </c>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>ランクを B に設定した。</t>
-        </is>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>ランクを B に設定した。</t>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.current_phase,0</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="inlineStr">
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>sukutsu_gladiator,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_stage,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>reset_done</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>主要フラグをリセットした。</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>主要フラグをリセットした。</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="B212" t="inlineStr">
         <is>
           <t>menu_flags</t>
         </is>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>set_rank_7</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="D211" t="inlineStr">
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>flag_complete_all</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="D214" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.rank,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>rank_set</t>
-        </is>
-      </c>
-      <c r="I212" t="inlineStr">
-        <is>
-          <t>ランクを A に設定した。</t>
-        </is>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>ランクを A に設定した。</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>menu_flags</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>set_rank_8</t>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.rank,8</t>
         </is>
       </c>
     </row>
@@ -3924,238 +3764,94 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.rank,8</t>
+          <t>chitsii.arena.player.current_phase,5</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>rank_set</t>
-        </is>
-      </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>ランクを S に設定した。</t>
-        </is>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>ランクを S に設定した。</t>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>sukutsu_gladiator,1</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="inlineStr">
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_stage,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>complete_done</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>主要フラグを完了状態に設定した。</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>主要フラグを完了状態に設定した。</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="B219" t="inlineStr">
         <is>
           <t>menu_flags</t>
         </is>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>flag_reset_all</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.rank,0</t>
-        </is>
-      </c>
-    </row>
     <row r="220">
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.current_phase,0</t>
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>sukutsu_gladiator,0</t>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>farewell</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>また会おう、観測対象よ……</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>また会おう、観測対象よ……</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="D222" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_stage,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>reset_done</t>
-        </is>
-      </c>
-      <c r="I223" t="inlineStr">
-        <is>
-          <t>主要フラグをリセットした。</t>
-        </is>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>主要フラグをリセットした。</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>menu_flags</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>flag_complete_all</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.rank,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.current_phase,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>sukutsu_gladiator,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_stage,4</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>complete_done</t>
-        </is>
-      </c>
-      <c r="I230" t="inlineStr">
-        <is>
-          <t>主要フラグを完了状態に設定した。</t>
-        </is>
-      </c>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>主要フラグを完了状態に設定した。</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>menu_flags</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>farewell</t>
-        </is>
-      </c>
-      <c r="I233" t="inlineStr">
-        <is>
-          <t>また会おう、観測対象よ……</t>
-        </is>
-      </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>また会おう、観測対象よ……</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="D234" t="inlineStr">
         <is>
           <t>end</t>
         </is>
